--- a/data/excel/states.xlsx
+++ b/data/excel/states.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -29,13 +29,7 @@
     <t>ar_name</t>
   </si>
   <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>deleted_at</t>
+    <t>01</t>
   </si>
   <si>
     <t>Adrar</t>
@@ -44,10 +38,7 @@
     <t>أدرار</t>
   </si>
   <si>
-    <t>2020-03-02 18:25:16</t>
-  </si>
-  <si>
-    <t>NULL</t>
+    <t>02</t>
   </si>
   <si>
     <t>Chlef</t>
@@ -56,42 +47,63 @@
     <t>الشلف</t>
   </si>
   <si>
+    <t>03</t>
+  </si>
+  <si>
     <t>Laghouat</t>
   </si>
   <si>
     <t>الأغواط</t>
   </si>
   <si>
+    <t>04</t>
+  </si>
+  <si>
     <t>Oum el bouaghi</t>
   </si>
   <si>
     <t>أم البواقي</t>
   </si>
   <si>
+    <t>05</t>
+  </si>
+  <si>
     <t>Batna</t>
   </si>
   <si>
     <t>باتنة</t>
   </si>
   <si>
+    <t>06</t>
+  </si>
+  <si>
     <t>Béjaïa</t>
   </si>
   <si>
     <t>بجاية</t>
   </si>
   <si>
+    <t>07</t>
+  </si>
+  <si>
     <t>Biskra</t>
   </si>
   <si>
     <t>بسكرة</t>
   </si>
   <si>
+    <t>08</t>
+  </si>
+  <si>
     <t>Bechar</t>
   </si>
   <si>
     <t>بشار</t>
   </si>
   <si>
+    <t>09</t>
+  </si>
+  <si>
     <t>Blida</t>
   </si>
   <si>
@@ -120,9 +132,6 @@
   </si>
   <si>
     <t>تلمسان</t>
-  </si>
-  <si>
-    <t>2020-03-02 18:25:17</t>
   </si>
   <si>
     <t>Tiaret</t>
@@ -671,7 +680,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,7 +688,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -692,114 +701,69 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -807,109 +771,64 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>8</v>
+      <c r="B9" t="s">
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>9</v>
+      <c r="B10" t="s">
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -917,22 +836,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -940,22 +850,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -963,22 +864,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -986,22 +878,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1009,22 +892,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1032,22 +906,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1055,22 +920,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1078,22 +934,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1101,22 +948,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1124,22 +962,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1147,22 +976,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1170,22 +990,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1193,22 +1004,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1216,22 +1018,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1239,22 +1032,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1262,22 +1046,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1285,22 +1060,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1308,22 +1074,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1331,22 +1088,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1354,22 +1102,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1377,22 +1116,13 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1400,22 +1130,13 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1423,22 +1144,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1446,22 +1158,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1469,22 +1172,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1492,22 +1186,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1515,22 +1200,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1538,22 +1214,13 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1561,22 +1228,13 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1584,22 +1242,13 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1607,22 +1256,13 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1630,22 +1270,13 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1653,22 +1284,13 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1676,22 +1298,13 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1699,22 +1312,13 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1722,22 +1326,13 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1745,22 +1340,13 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1768,22 +1354,13 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1791,19 +1368,10 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
